--- a/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Крамера-Мизиса-Смирнова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Крамера-Мизиса-Смирнова_result.xlsx
@@ -603,7 +603,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0614</v>
+        <v>0.0615</v>
       </c>
       <c r="D12" t="n">
         <v>0.3624</v>
